--- a/04_Model_Saved/NN_full_v3_BO_test_9/hypertable_NN_full_v3_BO_test_9.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/hypertable_NN_full_v3_BO_test_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,102 +537,102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5686664298456537</v>
+        <v>0.5584064200546731</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5686664298456537</v>
+        <v>0.5584064200546731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4786684776594241</v>
+        <v>0.510397411386172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4932189651472789</v>
+        <v>0.5438111753683322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6441138945440288</v>
+        <v>0.5730016647410141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5545509561896323</v>
+        <v>0.5276497069497904</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4027859991292159</v>
+        <v>0.4931451158225537</v>
       </c>
       <c r="H2" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0004766573624594072</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0003232910515722032</v>
+      </c>
+      <c r="S2" t="n">
+        <v>64</v>
+      </c>
+      <c r="T2" t="n">
         <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0001053288049058875</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0004508884829834347</v>
-      </c>
-      <c r="S2" t="n">
-        <v>64</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5439048385871309</v>
+        <v>0.571875891843636</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5686664298456537</v>
+        <v>0.571875891843636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5309170860548814</v>
+        <v>0.4982762479285399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5389954936584876</v>
+        <v>0.5747505130715095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.548814183515774</v>
+        <v>0.5690012706157626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5378158178925513</v>
+        <v>0.486827232837677</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5240183542172114</v>
+        <v>0.5097252630194029</v>
       </c>
       <c r="H3" t="n">
         <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -647,16 +647,6154 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0003647027188014688</v>
+        <v>0.0008797405013550374</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0003095494849176431</v>
+        <v>0.000578927581157838</v>
       </c>
       <c r="S3" t="n">
         <v>16</v>
       </c>
       <c r="T3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5385531131999312</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.571875891843636</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5380659365405639</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5693552419830208</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5077509844168416</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4931374964118003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5829943766693274</v>
+      </c>
+      <c r="H4" t="n">
+        <v>64</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>64</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0008032787759723757</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0003039341267846736</v>
+      </c>
+      <c r="S4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.526976524808764</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.571875891843636</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5487321107834577</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4864566018378511</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5674964477796772</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5933160770436128</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5041481445233027</v>
+      </c>
+      <c r="H5" t="n">
+        <v>64</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>64</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0003175341378023224</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0003686695370822499</v>
+      </c>
+      <c r="S5" t="n">
+        <v>16</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4959986807309393</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.571875891843636</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5856411902606488</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4740805440211928</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5179168174406857</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6121851165095965</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5590972640117008</v>
+      </c>
+      <c r="H6" t="n">
+        <v>64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0003098124309082943</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0002460122678443619</v>
+      </c>
+      <c r="S6" t="n">
+        <v>16</v>
+      </c>
+      <c r="T6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5795915207015115</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5795915207015115</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4901244058459997</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5864711978315283</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5727118435714946</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4749383848905563</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5053104268014431</v>
+      </c>
+      <c r="H7" t="n">
+        <v>64</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>64</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0008198428438415032</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0005929601653579422</v>
+      </c>
+      <c r="S7" t="n">
+        <v>16</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4067115135887282</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5795915207015115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6435020656138658</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2073204064242312</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6061026207532252</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8165507879853249</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4704533432424069</v>
+      </c>
+      <c r="H8" t="n">
+        <v>64</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S8" t="n">
+        <v>16</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5862198342996342</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5862198342996342</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4811292018493017</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5741047649408727</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5983349036583956</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4939439006646474</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4683145030339559</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>64</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0006785169400326378</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0005576672599472014</v>
+      </c>
+      <c r="S9" t="n">
+        <v>64</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.5966807229990837</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5966807229990837</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4725269960860412</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5840519470864939</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6093094989116733</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4832257585227489</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4618282336493333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>32</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>64</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.000683179276010705</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0005041247385290931</v>
+      </c>
+      <c r="S10" t="n">
+        <v>64</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.3951758337545188</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5966807229990837</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6494054475675026</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1919234999389027</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5984281675701352</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8251947508255641</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4736161443094413</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>32</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>64</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.000102624549695298</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0004143299603544726</v>
+      </c>
+      <c r="S11" t="n">
+        <v>64</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4638559423138698</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.58926332663686</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6280629166905748</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4860579324762027</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.441653952151537</v>
+      </c>
+      <c r="H12" t="n">
+        <v>64</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>64</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0007114765108994444</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0007503697714992912</v>
+      </c>
+      <c r="S12" t="n">
+        <v>64</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.596390920762815</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4692496398339669</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5731884575585721</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6195933839670578</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4962913069625696</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4422079727053642</v>
+      </c>
+      <c r="H13" t="n">
+        <v>64</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>32</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>64</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0009319975115218655</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0008569045477254094</v>
+      </c>
+      <c r="S13" t="n">
+        <v>16</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.5886365589621599</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4800649156918128</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5788059849319689</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5984671329923508</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4917878297468027</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4683420016368231</v>
+      </c>
+      <c r="H14" t="n">
+        <v>64</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>32</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>64</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0007805534893811866</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0005479611692088017</v>
+      </c>
+      <c r="S14" t="n">
+        <v>64</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.5872742914242899</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4803313855826855</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5713402173249801</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6032083655235997</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4989534860352675</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4617092851301035</v>
+      </c>
+      <c r="H15" t="n">
+        <v>64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0006986147574997025</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0005057640463643071</v>
+      </c>
+      <c r="S15" t="n">
+        <v>64</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.5993790750862317</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4725784205893676</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5814724348052144</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6172857153672489</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4919694704810779</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4531873706976572</v>
+      </c>
+      <c r="H16" t="n">
+        <v>64</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>32</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>64</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0007206070561277852</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0006388347384734686</v>
+      </c>
+      <c r="S16" t="n">
+        <v>64</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.598181778671525</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4676984251787265</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5785360328828163</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6178275244602339</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4885618347922961</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.446835015565157</v>
+      </c>
+      <c r="H17" t="n">
+        <v>64</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>64</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0007231451651852848</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0006564388558282859</v>
+      </c>
+      <c r="S17" t="n">
+        <v>64</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.6050297407135854</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4645907897750536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.58491813584621</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6251413455809608</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4822779868543147</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4469035926957924</v>
+      </c>
+      <c r="H18" t="n">
+        <v>64</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>64</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.000727920844985707</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0006781903986673053</v>
+      </c>
+      <c r="S18" t="n">
+        <v>64</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.5979878744249346</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4658638591567675</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5739634505025509</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6220122983473185</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4918496513863405</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4398780669271946</v>
+      </c>
+      <c r="H19" t="n">
+        <v>64</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>32</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>64</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0007417307981626388</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0007304444864070596</v>
+      </c>
+      <c r="S19" t="n">
+        <v>64</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.6044035412247472</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4636329415192207</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5758693579184114</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.632937724531083</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4927411532402039</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4345247297982375</v>
+      </c>
+      <c r="H20" t="n">
+        <v>64</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>64</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0007685756660561941</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0008277389000148122</v>
+      </c>
+      <c r="S20" t="n">
+        <v>64</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.5693862781001376</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4979262248923381</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5386674916579931</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6001050645422822</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5335570401946703</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4622954095900058</v>
+      </c>
+      <c r="H21" t="n">
+        <v>64</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>32</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>64</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0005922870896935132</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0005186075447965367</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.5149338865695925</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5603198458005985</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5477520003736139</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4821157727655711</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5317678630848727</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5888718285163244</v>
+      </c>
+      <c r="H22" t="n">
+        <v>64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>32</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>32</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0005113459290722328</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0003286475445019003</v>
+      </c>
+      <c r="S22" t="n">
+        <v>64</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.28711406181111</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.741385151942571</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.261230160439736</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3129979631824841</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7646341283122698</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7181361755728722</v>
+      </c>
+      <c r="H23" t="n">
+        <v>64</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>32</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>64</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.0001612289538530094</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.000122105227796283</v>
+      </c>
+      <c r="S23" t="n">
+        <v>16</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4305920507633967</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6152344309786956</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5705720529890138</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2906120485377797</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4980973317225774</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7323715302348138</v>
+      </c>
+      <c r="H24" t="n">
+        <v>64</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>64</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>64</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0006553124128428589</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0001070841666211907</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.604557121059661</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4619762635727724</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6078906326480077</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6012236094713143</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4555894556144873</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4683630715310574</v>
+      </c>
+      <c r="H25" t="n">
+        <v>64</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>64</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>32</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0009456228554231212</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0008090125799228746</v>
+      </c>
+      <c r="S25" t="n">
+        <v>16</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5628190814855328</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5252377133071423</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5656355426564431</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5600026203146226</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5138594878216585</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5366159387926261</v>
+      </c>
+      <c r="H26" t="n">
+        <v>64</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>32</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>32</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0006619786524155253</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0007024833820480452</v>
+      </c>
+      <c r="S26" t="n">
+        <v>16</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.5469137965879637</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5169090945273638</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.592819833979004</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5010077591969239</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4681172110140324</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5657009780406951</v>
+      </c>
+      <c r="H27" t="n">
+        <v>64</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>64</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>32</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0008057050816648878</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.000341604912702273</v>
+      </c>
+      <c r="S27" t="n">
+        <v>16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4111762640038918</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6373801975697279</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5975438474086597</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2248086805991238</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.466498110195001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8082622849444548</v>
+      </c>
+      <c r="H28" t="n">
+        <v>128</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>32</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>32</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0003594409783836127</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0001025767873069933</v>
+      </c>
+      <c r="S28" t="n">
+        <v>32</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.5707982301825858</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4849851024150849</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5014401668327428</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6401562935324286</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5572003867725531</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4127698180576165</v>
+      </c>
+      <c r="H29" t="n">
+        <v>128</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>32</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>64</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0002210641522865251</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.000807374521505235</v>
+      </c>
+      <c r="S29" t="n">
+        <v>16</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.5715420545084542</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4783946410318216</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5172949446265014</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6257891643904069</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5314760944743951</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.425313187589248</v>
+      </c>
+      <c r="H30" t="n">
+        <v>128</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>32</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>64</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.000390598338039492</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0008968746395171111</v>
+      </c>
+      <c r="S30" t="n">
+        <v>64</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.535125146254614</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5479547067483267</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5724917265398527</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4977585659693751</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5084168250858784</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5874925884107749</v>
+      </c>
+      <c r="H31" t="n">
+        <v>64</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>32</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>32</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0007881287713035925</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0003440516220597926</v>
+      </c>
+      <c r="S31" t="n">
+        <v>32</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.6030485137851112</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4643852438529333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5722248411291527</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6338721864410697</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4944027460118135</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.434367741694053</v>
+      </c>
+      <c r="H32" t="n">
+        <v>64</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>64</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>64</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0005469267055553869</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0008351281757090909</v>
+      </c>
+      <c r="S32" t="n">
+        <v>64</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4869671204478863</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6086631216637173</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5740670556823413</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5851917413900575</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3887424995057153</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4754127980768681</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6727213132878145</v>
+      </c>
+      <c r="H33" t="n">
+        <v>128</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>64</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>32</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0005279120590076119</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0002253675336819403</v>
+      </c>
+      <c r="S33" t="n">
+        <v>64</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.6140533327212259</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6140533327212259</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4600694970289866</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6111415111244431</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6169651543180085</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4506806814670563</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4694583125909169</v>
+      </c>
+      <c r="H34" t="n">
+        <v>128</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>32</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0008949252359535132</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0009005820203702011</v>
+      </c>
+      <c r="S34" t="n">
+        <v>32</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.5982593397088097</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6140533327212259</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4693549310664336</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5559029368410572</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6406157425765625</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5167704001069069</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4219394620259603</v>
+      </c>
+      <c r="H35" t="n">
+        <v>128</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>32</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>64</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0004716569629305142</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0008656917175514635</v>
+      </c>
+      <c r="S35" t="n">
+        <v>64</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.5448228426166685</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6140533327212259</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5357386519263189</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5776843575126789</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5119613277206581</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5008986752231915</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.570578628629446</v>
+      </c>
+      <c r="H36" t="n">
+        <v>128</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>32</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>32</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0006558940526309485</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0003609652307342569</v>
+      </c>
+      <c r="S36" t="n">
+        <v>32</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.5508540344716906</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6140533327212259</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5252765030165514</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5856079583767567</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5161001105666245</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4820264628032844</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5685265432298183</v>
+      </c>
+      <c r="H37" t="n">
+        <v>128</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>32</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>32</v>
+      </c>
+      <c r="M37" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0004863098345753587</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0003759879867394634</v>
+      </c>
+      <c r="S37" t="n">
+        <v>32</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5899329247549887</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6140533327212259</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4834249632060528</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5852713235731238</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5945945259368535</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4838927987217903</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4829571276903151</v>
+      </c>
+      <c r="H38" t="n">
+        <v>64</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>64</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>32</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.000962736040812325</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0008552043970986689</v>
+      </c>
+      <c r="S38" t="n">
+        <v>16</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.4630002315027721</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6140533327212259</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.606160361369451</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5600331716846959</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3659672913208483</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5277131374677021</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6846075852711996</v>
+      </c>
+      <c r="H39" t="n">
+        <v>64</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>32</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>64</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0005429439396180671</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0001257092346735674</v>
+      </c>
+      <c r="S39" t="n">
+        <v>64</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.614430622641251</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.614430622641251</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4531037401159605</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5928399592024938</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6360212860800084</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4766796811918417</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.4295277990400792</v>
+      </c>
+      <c r="H40" t="n">
+        <v>128</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>64</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>64</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0004285785453448165</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.000655358619127977</v>
+      </c>
+      <c r="S40" t="n">
+        <v>32</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.3900576785190315</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.614430622641251</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6543619532634815</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3707408355808872</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4093745214571758</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.678143508285284</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.6305803982416789</v>
+      </c>
+      <c r="H41" t="n">
+        <v>128</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>64</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>64</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.0001010029967593802</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0001028922592853985</v>
+      </c>
+      <c r="S41" t="n">
+        <v>32</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.608904228790872</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.614430622641251</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4455934352427721</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6062119595810048</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6115964980007392</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4465139392018319</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4446729312837123</v>
+      </c>
+      <c r="H42" t="n">
+        <v>128</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>64</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>64</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0006518436362241304</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.000440612966780662</v>
+      </c>
+      <c r="S42" t="n">
+        <v>32</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5342940169897443</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.614430622641251</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5080961828430494</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6273827674243864</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4412052665551023</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4180889946222305</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5981033710638682</v>
+      </c>
+      <c r="H43" t="n">
+        <v>128</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>64</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>64</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S43" t="n">
+        <v>32</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4397229015082121</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6088133374575185</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6204944544488641</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4526458230117956</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.4267999800046284</v>
+      </c>
+      <c r="H44" t="n">
+        <v>128</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>64</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>64</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0006024681665903447</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0009486300179753322</v>
+      </c>
+      <c r="S44" t="n">
+        <v>32</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.5149003883589121</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5422370147456727</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5942767632813267</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4355240134364973</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.464328794280688</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.620145235210657</v>
+      </c>
+      <c r="H45" t="n">
+        <v>64</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>64</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>32</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0009089985961821334</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0002265572396077968</v>
+      </c>
+      <c r="S45" t="n">
+        <v>16</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.5748026936532057</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4948504872371753</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.54456485114192</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6050405361644915</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.518464542378982</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.4712364320953686</v>
+      </c>
+      <c r="H46" t="n">
+        <v>64</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>32</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>64</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0009515503412381747</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0008352731648100607</v>
+      </c>
+      <c r="S46" t="n">
+        <v>64</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.6088798640956194</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4467326120038828</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5874007949716643</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6303589332195746</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.4739349499841531</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4195302740236123</v>
+      </c>
+      <c r="H47" t="n">
+        <v>128</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>64</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>64</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0003298462015773771</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0007556232187820646</v>
+      </c>
+      <c r="S47" t="n">
+        <v>32</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.4264448090528849</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6301011499017477</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5664271261017536</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.286462492004016</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5181601817905904</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.7420421180129052</v>
+      </c>
+      <c r="H48" t="n">
+        <v>64</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>32</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>64</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.0006868847344996008</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.0001025643788184983</v>
+      </c>
+      <c r="S48" t="n">
+        <v>16</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.5767750605842896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4932931194454431</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5089933584011969</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6445567627673824</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5639887464046478</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.4225974924862385</v>
+      </c>
+      <c r="H49" t="n">
+        <v>64</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>32</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>64</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.0003062071317007214</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.0009346571061887044</v>
+      </c>
+      <c r="S49" t="n">
+        <v>64</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.5226012839953064</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5382984424879154</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5887973732234749</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4564051947671378</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4852012404799462</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5913956444958847</v>
+      </c>
+      <c r="H50" t="n">
+        <v>128</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>32</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>64</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.0004905927303847427</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0001106592006703172</v>
+      </c>
+      <c r="S50" t="n">
+        <v>32</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.5191215167091762</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5436628190179665</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5885176224146701</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4497254110036821</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.4680675440033277</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6192580940326055</v>
+      </c>
+      <c r="H51" t="n">
+        <v>64</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>64</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>32</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.0008581389986134406</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.0002714619606147747</v>
+      </c>
+      <c r="S51" t="n">
+        <v>64</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.6051504739231265</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4560829555243253</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5739288400493944</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6363721077968584</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.4829209272563458</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.429244983792305</v>
+      </c>
+      <c r="H52" t="n">
+        <v>64</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>64</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>64</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0006365363586214559</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0009566139009644864</v>
+      </c>
+      <c r="S52" t="n">
+        <v>64</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.5815709098598566</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4868056130905946</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5824506675228868</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5806911521968264</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.4875965981682142</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.4860146280129751</v>
+      </c>
+      <c r="H53" t="n">
+        <v>128</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>32</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>64</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0006893685817031796</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0003001835119085618</v>
+      </c>
+      <c r="S53" t="n">
+        <v>64</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.5333589489476029</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5337437980125347</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.44844991221175</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.618267985683456</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.6316766207416852</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.4358109752833843</v>
+      </c>
+      <c r="H54" t="n">
+        <v>64</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>32</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>64</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.00029833563654846</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.0008252991963294518</v>
+      </c>
+      <c r="S54" t="n">
+        <v>32</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.5288937229453388</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5435969291379054</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5629119713007459</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.4948754745899316</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5175517096122105</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5696421486636002</v>
+      </c>
+      <c r="H55" t="n">
+        <v>64</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>32</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>64</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.0008157217493681162</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0002371832116201222</v>
+      </c>
+      <c r="S55" t="n">
+        <v>32</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.4436695632669447</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6146538959531913</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.6248670821388562</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3411586450415158</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5461804814923735</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.7169880341986814</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.5327461300790309</v>
+      </c>
+      <c r="H56" t="n">
+        <v>64</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>32</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>64</v>
+      </c>
+      <c r="M56" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.0002225307289428577</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0003871095351998929</v>
+      </c>
+      <c r="S56" t="n">
+        <v>64</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4242242140819629</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6012369415796712</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6592970921119764</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.4597657692929109</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3886826588710149</v>
+      </c>
+      <c r="H57" t="n">
+        <v>128</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>32</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>64</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.0005850214606789909</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.0008813043017368129</v>
+      </c>
+      <c r="S57" t="n">
+        <v>32</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.5709550629769023</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4914815931518872</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5605750294462758</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5813350965075288</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.4965533202886581</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.4864098660151164</v>
+      </c>
+      <c r="H58" t="n">
+        <v>64</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>64</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>64</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.0008249043585721495</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.0005505706604033622</v>
+      </c>
+      <c r="S58" t="n">
+        <v>64</v>
+      </c>
+      <c r="T58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.5875585777741735</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4711865263183912</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5990614581512482</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5760556973970988</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.4587852118909359</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.4835878407458464</v>
+      </c>
+      <c r="H59" t="n">
+        <v>128</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>64</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>32</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.0004318500479252655</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.0004504771141702192</v>
+      </c>
+      <c r="S59" t="n">
+        <v>64</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.5403369565132287</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5430591832846403</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5640684292444591</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5166054837819981</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5175162742038567</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5686020923654239</v>
+      </c>
+      <c r="H60" t="n">
+        <v>64</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>32</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>32</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.0007085780349390114</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.0005904539358380301</v>
+      </c>
+      <c r="S60" t="n">
+        <v>32</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.5363565518969838</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5240083895872036</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.4774000521602726</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5953130516336952</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5845101049542426</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.4635066742201646</v>
+      </c>
+      <c r="H61" t="n">
+        <v>64</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>64</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>64</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.0002068870808843843</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0005878948058415879</v>
+      </c>
+      <c r="S61" t="n">
+        <v>64</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.6172692009966751</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.444620714833339</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5948431518848878</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6396952501084626</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.4621123983959357</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.4271290312707424</v>
+      </c>
+      <c r="H62" t="n">
+        <v>64</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>64</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>64</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S62" t="n">
+        <v>64</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.4559369464992611</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5868297905971607</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.6166240602799155</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2952498327186067</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.4317728126049042</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.741886768589417</v>
+      </c>
+      <c r="H63" t="n">
+        <v>128</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>64</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>32</v>
+      </c>
+      <c r="M63" t="n">
+        <v>6</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.0008073723979023026</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0001305374357178435</v>
+      </c>
+      <c r="S63" t="n">
+        <v>32</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.5756690824071512</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4877643748372793</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.559834145805467</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5915040190088355</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5101444903016091</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.4653842593729496</v>
+      </c>
+      <c r="H64" t="n">
+        <v>64</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>64</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>64</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.0005432776280214683</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.00055688336101597</v>
+      </c>
+      <c r="S64" t="n">
+        <v>64</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.2697380214124644</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.754857156748573</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2187875350142331</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3206885078106957</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.806023951570193</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7036903619269531</v>
+      </c>
+      <c r="H65" t="n">
+        <v>64</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>64</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>64</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S65" t="n">
+        <v>64</v>
+      </c>
+      <c r="T65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.5641212264357652</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4945568834741911</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6004936359784608</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5277488168930696</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.4508983025451501</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.538215464403232</v>
+      </c>
+      <c r="H66" t="n">
+        <v>128</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>32</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.0005991300256625687</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.0002972189574307937</v>
+      </c>
+      <c r="S66" t="n">
+        <v>64</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.6029761286553609</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.4624432222048442</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5988945228634235</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6070577344472982</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.4569525153934955</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.4679339290161928</v>
+      </c>
+      <c r="H67" t="n">
+        <v>64</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>64</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>64</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0005253855255397122</v>
+      </c>
+      <c r="S67" t="n">
+        <v>64</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.5660544293811987</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5120720205207666</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5221178415889886</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6099910171734088</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.5676671065886815</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4564769344528516</v>
+      </c>
+      <c r="H68" t="n">
+        <v>64</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>32</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" t="n">
+        <v>32</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.0004027249853939281</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.0009690469049044459</v>
+      </c>
+      <c r="S68" t="n">
+        <v>32</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.6182352934774926</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.4520526889711619</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6020798471162595</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6343907398387257</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.4698890674114227</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.434216310530901</v>
+      </c>
+      <c r="H69" t="n">
+        <v>128</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>32</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>64</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0009699560192786426</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0006440946491666623</v>
+      </c>
+      <c r="S69" t="n">
+        <v>16</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.6170239906214072</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4429166605323553</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5891283271291747</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.6449196541136396</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.464053179572026</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.4217801414926847</v>
+      </c>
+      <c r="H70" t="n">
+        <v>64</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>64</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>64</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S70" t="n">
+        <v>64</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.5759607252474773</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.4838630535950263</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.6055592234278873</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5463622270670675</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.4477689210077127</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.5199571861823399</v>
+      </c>
+      <c r="H71" t="n">
+        <v>128</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>64</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4</v>
+      </c>
+      <c r="L71" t="n">
+        <v>64</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.0009371067104528816</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.0002811959265441612</v>
+      </c>
+      <c r="S71" t="n">
+        <v>32</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.6137840439334479</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4515579739958048</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5980946811947643</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6294734066721314</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.4740992213785648</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.4290167266130447</v>
+      </c>
+      <c r="H72" t="n">
+        <v>128</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>32</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>64</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S72" t="n">
+        <v>16</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.5687414103998519</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5035316769282022</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.5961698002204993</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5413130205792046</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.4587625156342983</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.5483008382221063</v>
+      </c>
+      <c r="H73" t="n">
+        <v>128</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>64</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>32</v>
+      </c>
+      <c r="M73" t="n">
+        <v>6</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0005982106934973164</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0004340794548856662</v>
+      </c>
+      <c r="S73" t="n">
+        <v>32</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.3250934726193382</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.7128600819160541</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.2577007863228497</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.3924861589158267</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7779462798436483</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.6477738839884598</v>
+      </c>
+      <c r="H74" t="n">
+        <v>64</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>32</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>64</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S74" t="n">
+        <v>64</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.5803982924095585</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6302670168458238</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.4978745155781508</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.586982317498323</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.573814267320794</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.477803169687589</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.5179458614687125</v>
+      </c>
+      <c r="H75" t="n">
+        <v>128</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>32</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4</v>
+      </c>
+      <c r="L75" t="n">
+        <v>32</v>
+      </c>
+      <c r="M75" t="n">
+        <v>6</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.0009791232026197727</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.00077932025417364</v>
+      </c>
+      <c r="S75" t="n">
+        <v>16</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.418980152780811</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6227029283702438</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6391773857734353</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.4310492098828156</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.4069110956788063</v>
+      </c>
+      <c r="H76" t="n">
+        <v>128</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>64</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>64</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.0007799035808687534</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.0009113472581926194</v>
+      </c>
+      <c r="S76" t="n">
+        <v>32</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.5946035351249064</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4689088876048724</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.6025076449696258</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5866994252801868</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.4567365464071433</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.4810812288026016</v>
+      </c>
+      <c r="H77" t="n">
+        <v>64</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>64</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>64</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.0005550530650686523</v>
+      </c>
+      <c r="S77" t="n">
+        <v>64</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.6267421777663628</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.4278923339893421</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.6149535860416012</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6385307694911243</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.4409383419652779</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.4148463260134061</v>
+      </c>
+      <c r="H78" t="n">
+        <v>128</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>32</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>64</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.0007652824672706857</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.0005408884389438981</v>
+      </c>
+      <c r="S78" t="n">
+        <v>32</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.5712937922288494</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4997257063537836</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5406878107938226</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6018997736638759</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5260840277870497</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.4733673849205176</v>
+      </c>
+      <c r="H79" t="n">
+        <v>128</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>32</v>
+      </c>
+      <c r="K79" t="n">
+        <v>5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>32</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.0005526900769264275</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0009191240181737018</v>
+      </c>
+      <c r="S79" t="n">
+        <v>32</v>
+      </c>
+      <c r="T79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.5060590912035333</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5419469586014748</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.3825512346347208</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6295669477723459</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6571858469645182</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.4267080702384313</v>
+      </c>
+      <c r="H80" t="n">
+        <v>128</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>64</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>32</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S80" t="n">
+        <v>64</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.546401513627473</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5324611958861351</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.5247278249133026</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.5680752023416434</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5466187270482381</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5183036647240322</v>
+      </c>
+      <c r="H81" t="n">
+        <v>64</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>64</v>
+      </c>
+      <c r="K81" t="n">
+        <v>6</v>
+      </c>
+      <c r="L81" t="n">
+        <v>32</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.0003096234011262327</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.00058897811265474</v>
+      </c>
+      <c r="S81" t="n">
+        <v>16</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.5191558595502505</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5523331973950069</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.5649512122815633</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4733605068189375</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.4988874028623104</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.6057789919277031</v>
+      </c>
+      <c r="H82" t="n">
+        <v>64</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>64</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3</v>
+      </c>
+      <c r="L82" t="n">
+        <v>32</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.0007265321182608889</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.0003230048759473963</v>
+      </c>
+      <c r="S82" t="n">
+        <v>64</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.5834616161096519</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4854371039321024</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.5844204088411268</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5825028233781769</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.4723502672215303</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4985239406426747</v>
+      </c>
+      <c r="H83" t="n">
+        <v>64</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>64</v>
+      </c>
+      <c r="K83" t="n">
+        <v>6</v>
+      </c>
+      <c r="L83" t="n">
+        <v>64</v>
+      </c>
+      <c r="M83" t="n">
+        <v>6</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.0009314773767592712</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.0005874524132213448</v>
+      </c>
+      <c r="S83" t="n">
+        <v>64</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.6084542613107192</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4471726372092963</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.58241417574517</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.6344943468762683</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.4770926105976105</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.417252663820982</v>
+      </c>
+      <c r="H84" t="n">
+        <v>128</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>32</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>64</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.0003701652427575471</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.0005768152041678814</v>
+      </c>
+      <c r="S84" t="n">
+        <v>32</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.4744779412856259</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5894080560157696</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.3526398084164019</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5963160741548499</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6901129247744878</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.4887031872570515</v>
+      </c>
+      <c r="H85" t="n">
+        <v>128</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>32</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>32</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.000193023991682116</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.0009722021457189312</v>
+      </c>
+      <c r="S85" t="n">
+        <v>16</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.6176042011544703</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4451896182696025</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6164596358504039</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6187487664585368</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.4364916381736597</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.4538875983655453</v>
+      </c>
+      <c r="H86" t="n">
+        <v>128</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>64</v>
+      </c>
+      <c r="K86" t="n">
+        <v>5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>64</v>
+      </c>
+      <c r="M86" t="n">
+        <v>6</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.0008570552409578936</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0006397763409640066</v>
+      </c>
+      <c r="S86" t="n">
+        <v>32</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.5864168576531478</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4915553659697374</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.5602778456871839</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6125558696191119</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.529229818781217</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.4538809131582578</v>
+      </c>
+      <c r="H87" t="n">
+        <v>64</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>32</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6</v>
+      </c>
+      <c r="L87" t="n">
+        <v>64</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.0006744635168943388</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0005615152632121476</v>
+      </c>
+      <c r="S87" t="n">
+        <v>64</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.5354711931512052</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5390481416136027</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5444815190124749</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5264608672899355</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5312970928351085</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.5467991903920968</v>
+      </c>
+      <c r="H88" t="n">
+        <v>64</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>64</v>
+      </c>
+      <c r="K88" t="n">
+        <v>5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>64</v>
+      </c>
+      <c r="M88" t="n">
+        <v>6</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.0004113128889306177</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.0003486732049886926</v>
+      </c>
+      <c r="S88" t="n">
+        <v>64</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.4012690385948199</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.6375391788532337</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1949562110250857</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6075818661645541</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8202678897976875</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.4548104679087798</v>
+      </c>
+      <c r="H89" t="n">
+        <v>128</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="n">
+        <v>6</v>
+      </c>
+      <c r="L89" t="n">
+        <v>64</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.0004709489714597467</v>
+      </c>
+      <c r="S89" t="n">
+        <v>64</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.5836060886330802</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4772241374353567</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.543247130310284</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6239650469558766</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5128657607734204</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4415825140972933</v>
+      </c>
+      <c r="H90" t="n">
+        <v>128</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>64</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4</v>
+      </c>
+      <c r="L90" t="n">
+        <v>64</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.0002834433658834279</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.0007165073320197952</v>
+      </c>
+      <c r="S90" t="n">
+        <v>32</v>
+      </c>
+      <c r="T90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.5835710366727034</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4886911750584841</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.574275237946989</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.5928668353984179</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.5048151293396951</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.4725672207772731</v>
+      </c>
+      <c r="H91" t="n">
+        <v>64</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>32</v>
+      </c>
+      <c r="K91" t="n">
+        <v>4</v>
+      </c>
+      <c r="L91" t="n">
+        <v>64</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.000767091208057276</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0005607190328387996</v>
+      </c>
+      <c r="S91" t="n">
+        <v>32</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.6102615209322578</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4522096782674392</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5673580814778619</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6531649603866539</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.4965797052780787</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.4078396512567997</v>
+      </c>
+      <c r="H92" t="n">
+        <v>128</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>64</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5</v>
+      </c>
+      <c r="L92" t="n">
+        <v>64</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.0003035968518928036</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.0008403179685048723</v>
+      </c>
+      <c r="S92" t="n">
+        <v>16</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.5890015585593603</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.4736389897763729</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.553902732526688</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6241003845920327</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.4926648495097956</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4546131300429503</v>
+      </c>
+      <c r="H93" t="n">
+        <v>128</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>64</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3</v>
+      </c>
+      <c r="L93" t="n">
+        <v>32</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.0005404847147639912</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.0008737766177800166</v>
+      </c>
+      <c r="S93" t="n">
+        <v>32</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.5328701483068857</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.537444748605291</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5521977466286178</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5135425499851537</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.5048296379049618</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.5700598593056201</v>
+      </c>
+      <c r="H94" t="n">
+        <v>64</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>64</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6</v>
+      </c>
+      <c r="L94" t="n">
+        <v>32</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.00075634062759938</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.0004703883050376947</v>
+      </c>
+      <c r="S94" t="n">
+        <v>16</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.5493440275824345</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5147609770298004</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5790305864492625</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5196574687156064</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.4761905236045519</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.5533314304550488</v>
+      </c>
+      <c r="H95" t="n">
+        <v>128</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>64</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>32</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.000320258523378612</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.0002625420625648522</v>
+      </c>
+      <c r="S95" t="n">
+        <v>32</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.4928168621271756</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5762672184407711</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.3789796657372628</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6066540585170886</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6862803287307422</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.4662541081508</v>
+      </c>
+      <c r="H96" t="n">
+        <v>64</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>32</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6</v>
+      </c>
+      <c r="L96" t="n">
+        <v>64</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.0003300806068137181</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.0006683770405130253</v>
+      </c>
+      <c r="S96" t="n">
+        <v>16</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.5685600503119583</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4896270782748859</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.6103263455279974</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5267937550959193</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.4445040115714073</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5347501449783643</v>
+      </c>
+      <c r="H97" t="n">
+        <v>128</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>32</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>64</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.0007980560906229476</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.0001918409022167224</v>
+      </c>
+      <c r="S97" t="n">
+        <v>16</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.5800237050054527</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.4932182404647271</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.5281605232333958</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6318868867775096</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.5518564955393473</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.4345799853901068</v>
+      </c>
+      <c r="H98" t="n">
+        <v>64</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>32</v>
+      </c>
+      <c r="K98" t="n">
+        <v>6</v>
+      </c>
+      <c r="L98" t="n">
+        <v>64</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.0005254969228498462</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.0009837649251081559</v>
+      </c>
+      <c r="S98" t="n">
+        <v>32</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.3576226905390342</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.6717370012402535</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1093248576572553</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.6059205234208132</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.8947004471222559</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.448773555358251</v>
+      </c>
+      <c r="H99" t="n">
+        <v>64</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>64</v>
+      </c>
+      <c r="K99" t="n">
+        <v>6</v>
+      </c>
+      <c r="L99" t="n">
+        <v>64</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S99" t="n">
+        <v>64</v>
+      </c>
+      <c r="T99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.603676365706784</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4633779945721229</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.5815915746955661</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6257611567180016</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.4917797180016836</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.4349762711425622</v>
+      </c>
+      <c r="H100" t="n">
+        <v>128</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>32</v>
+      </c>
+      <c r="K100" t="n">
+        <v>4</v>
+      </c>
+      <c r="L100" t="n">
+        <v>64</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.000608626521571232</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.0008214131179679935</v>
+      </c>
+      <c r="S100" t="n">
+        <v>16</v>
+      </c>
+      <c r="T100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.5629912435995911</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.5092691188305616</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.5921919407762251</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5337905464229572</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.4835778377950192</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.5349603998661042</v>
+      </c>
+      <c r="H101" t="n">
+        <v>128</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>32</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4</v>
+      </c>
+      <c r="L101" t="n">
+        <v>64</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.0006858244675103024</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.0002286177222417573</v>
+      </c>
+      <c r="S101" t="n">
+        <v>16</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.4881289452000417</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.6309401570718396</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.5585406321287155</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6075666515958661</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3686912388042176</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.4395049392183621</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.6775763250390688</v>
+      </c>
+      <c r="H102" t="n">
+        <v>128</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>64</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" t="n">
+        <v>32</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.0008772152787423268</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S102" t="n">
+        <v>64</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
